--- a/DesigandExecution/1.1 Test of cases.xlsx
+++ b/DesigandExecution/1.1 Test of cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\Documents\Academy\QAVolotea\QAFrontEndVolotea\DesigandExecution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B0A46-B960-42D1-891C-FF1E52FE7875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977BEE3-90CB-4D78-B225-D5CE85B4F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="82">
   <si>
     <t>Identificador</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t>Debe permitir borrar lo seleccionado y buscar por nombre o código IATA</t>
+  </si>
+  <si>
+    <t>Validar buscador origen por codigo IATA</t>
+  </si>
+  <si>
+    <t>Al seleccionar la opcion origen, permita buscar por codigo IATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresar a la URL: https://volotea.com/en
+2. Dar clic en el buscador Origen.
+3. Capturar el siguiente codigo IATA
+</t>
+  </si>
+  <si>
+    <t>Debe permitir buscar origen con código IATA.</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1089,8 @@
   </sheetPr>
   <dimension ref="A2:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1309,15 +1324,33 @@
     </row>
     <row r="8" spans="1:29" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="8"/>
     </row>
